--- a/LINKAGES_params.xlsx
+++ b/LINKAGES_params.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14500" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="variables_list" sheetId="1" r:id="rId1"/>
+    <sheet name="pfts_v_params" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="192">
   <si>
     <t>PARAMETER ABBREVIATION</t>
   </si>
@@ -487,9 +488,6 @@
     <t>leaf_litter?</t>
   </si>
   <si>
-    <t>leaf_biomass_area</t>
-  </si>
-  <si>
     <t>root2shoot</t>
   </si>
   <si>
@@ -503,13 +501,148 @@
   </si>
   <si>
     <t>none?</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>setting</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>initial condition</t>
+  </si>
+  <si>
+    <t>we don't have a standard phenology input yet</t>
+  </si>
+  <si>
+    <t>We don't have a standard soils input yet, but the soil types are in the PalEON protocol</t>
+  </si>
+  <si>
+    <t>met</t>
+  </si>
+  <si>
+    <t>create new parameter</t>
+  </si>
+  <si>
+    <t>create new parameter's for max_height and max_dbh</t>
+  </si>
+  <si>
+    <t>ignore?</t>
+  </si>
+  <si>
+    <t>I don't know if it's in BETY's trait table, but there's good estimates of this in the USDA Plants database, which used to be linked to the Species table</t>
+  </si>
+  <si>
+    <t>Set parameter to SLA, calc from that posterior</t>
+  </si>
+  <si>
+    <t>looks good</t>
+  </si>
+  <si>
+    <t>probably -- you should probably check the details on each</t>
+  </si>
+  <si>
+    <t>leaf_longevity?</t>
+  </si>
+  <si>
+    <t>Use the Allometry module to estimate these. I'm surprised that these aren't in there already since ED needs this too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find in manual </t>
+  </si>
+  <si>
+    <t>SLA</t>
+  </si>
+  <si>
+    <t>GNIPGWL</t>
+  </si>
+  <si>
+    <t>CPN</t>
+  </si>
+  <si>
+    <t>litter_type</t>
+  </si>
+  <si>
+    <t>L! and L2</t>
+  </si>
+  <si>
+    <t>CM1</t>
+  </si>
+  <si>
+    <t>CM2</t>
+  </si>
+  <si>
+    <t>CM3</t>
+  </si>
+  <si>
+    <t>CM4</t>
+  </si>
+  <si>
+    <t>CM5</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>Hemlock (Tsuga canadensis)</t>
+  </si>
+  <si>
+    <t>Chestnut (Castanea dentata)</t>
+  </si>
+  <si>
+    <t>Beech (Fagus grandifolia)</t>
+  </si>
+  <si>
+    <t>Maple (Acer)</t>
+  </si>
+  <si>
+    <t>Hickory (Carya)</t>
+  </si>
+  <si>
+    <t>Spruce (Picea)</t>
+  </si>
+  <si>
+    <t>Pine (Pinus)</t>
+  </si>
+  <si>
+    <t>Oak (Quercus)</t>
+  </si>
+  <si>
+    <t>Birch (Betula)</t>
+  </si>
+  <si>
+    <t>wait on these</t>
+  </si>
+  <si>
+    <t>max_ht</t>
+  </si>
+  <si>
+    <t>max_dbh</t>
+  </si>
+  <si>
+    <t>to calculate Growth scaling parameters B2 and B3</t>
+  </si>
+  <si>
+    <t>each of these cells need a specified distribution and shape parameters for that distribution and citation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -550,6 +683,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -568,7 +708,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -620,8 +760,212 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -640,8 +984,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="85">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -650,6 +1012,40 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -658,6 +1054,40 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -987,22 +1417,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="2" width="51.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32">
+    <row r="1" spans="1:7" ht="48">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +1450,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45">
+    <row r="2" spans="1:7" ht="75">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1035,8 +1466,11 @@
       <c r="E2" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16">
+      <c r="F2" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="32">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1049,8 +1483,11 @@
       <c r="E3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="32">
+      <c r="F3" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="32">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1063,8 +1500,11 @@
       <c r="E4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16">
+      <c r="F4" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="32">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1075,8 +1515,11 @@
       <c r="E5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="48">
+      <c r="F5" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="80">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1089,8 +1532,11 @@
       <c r="E6" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="16">
+      <c r="F6" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="32">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1103,8 +1549,11 @@
       <c r="E7" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="16">
+      <c r="F7" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="32">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1117,8 +1566,11 @@
       <c r="E8" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="16">
+      <c r="F8" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="32" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1131,8 +1583,14 @@
       <c r="E9" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="16">
+      <c r="F9" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="32">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1145,8 +1603,12 @@
       <c r="E10" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="16">
+      <c r="F10" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" ht="16">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1159,8 +1621,14 @@
       <c r="E11" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="16">
+      <c r="F11" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1173,8 +1641,12 @@
       <c r="E12" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="17">
+      <c r="F12" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" ht="33">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1187,8 +1659,14 @@
       <c r="E13" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="32">
+      <c r="F13" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="64">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -1198,8 +1676,12 @@
       <c r="E14" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="32">
+      <c r="F14" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" ht="48">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1212,8 +1694,12 @@
       <c r="E15" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="32">
+      <c r="F15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" ht="80">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1223,8 +1709,12 @@
       <c r="E16" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="16">
+      <c r="F16" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" ht="16">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1237,8 +1727,11 @@
       <c r="E17" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="32">
+      <c r="F17" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="48">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1251,8 +1744,11 @@
       <c r="E18" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="48">
+      <c r="F18" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="80">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1263,7 +1759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="32">
+    <row r="21" spans="1:8" ht="48">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -1276,8 +1772,11 @@
       <c r="E21" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="32">
+      <c r="F21" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="48">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1293,8 +1792,14 @@
       <c r="E22" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="32">
+      <c r="F22" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="48">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1310,9 +1815,15 @@
       <c r="E23" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="32">
-      <c r="A24" s="2" t="s">
+      <c r="F23" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="48">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1327,9 +1838,18 @@
       <c r="E24" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="32">
-      <c r="A25" s="2" t="s">
+      <c r="F24" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="48">
+      <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1344,8 +1864,14 @@
       <c r="E25" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="32">
+      <c r="F25" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="48">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -1355,8 +1881,14 @@
       <c r="C26" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="16">
+      <c r="F26" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="32">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -1369,8 +1901,14 @@
       <c r="E27" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="16">
+      <c r="F27" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="32">
       <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
@@ -1383,8 +1921,14 @@
       <c r="E28" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="16">
+      <c r="F28" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="32">
       <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
@@ -1397,8 +1941,14 @@
       <c r="E29" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="16">
+      <c r="F29" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="32">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -1411,8 +1961,14 @@
       <c r="E30" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="16">
+      <c r="F30" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="32">
       <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
@@ -1425,9 +1981,12 @@
       <c r="E31" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="32">
-      <c r="A32" s="2" t="s">
+      <c r="F31" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="64">
+      <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1439,8 +1998,14 @@
       <c r="E32" s="4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="16">
+      <c r="F32" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="32">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
@@ -1453,8 +2018,11 @@
       <c r="E33" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="32">
+      <c r="F33" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="64">
       <c r="A34" s="2" t="s">
         <v>67</v>
       </c>
@@ -1467,8 +2035,14 @@
       <c r="E34" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="32">
+      <c r="F34" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="48">
       <c r="A35" s="2" t="s">
         <v>69</v>
       </c>
@@ -1481,8 +2055,14 @@
       <c r="E35" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="80">
+      <c r="F35" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="144">
       <c r="A36" s="2" t="s">
         <v>71</v>
       </c>
@@ -1495,9 +2075,15 @@
       <c r="E36" s="4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="16">
-      <c r="A37" s="2" t="s">
+      <c r="F36" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="48">
+      <c r="A37" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1506,8 +2092,14 @@
       <c r="C37" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="17">
+      <c r="F37" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="32">
       <c r="A38" s="2" t="s">
         <v>75</v>
       </c>
@@ -1518,10 +2110,16 @@
         <v>77</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="49">
+        <v>166</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="65">
       <c r="A39" s="2" t="s">
         <v>78</v>
       </c>
@@ -1534,8 +2132,14 @@
       <c r="E39" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="49">
+      <c r="F39" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="65">
       <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
@@ -1543,10 +2147,14 @@
         <v>79</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="16">
+        <v>147</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" ht="32">
       <c r="A41" s="2" t="s">
         <v>81</v>
       </c>
@@ -1557,10 +2165,16 @@
         <v>83</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="16">
+        <v>142</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="32">
       <c r="A42" s="2" t="s">
         <v>84</v>
       </c>
@@ -1573,11 +2187,17 @@
       <c r="E42" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="16">
+      <c r="F42" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="16">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:5" ht="32">
+    <row r="44" spans="1:7" ht="64">
       <c r="A44" s="1" t="s">
         <v>123</v>
       </c>
@@ -1588,7 +2208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16">
+    <row r="45" spans="1:7" ht="32">
       <c r="A45" s="2" t="s">
         <v>86</v>
       </c>
@@ -1604,8 +2224,11 @@
       <c r="E45" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="16">
+      <c r="F45" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="16">
       <c r="A46" s="2" t="s">
         <v>88</v>
       </c>
@@ -1621,116 +2244,182 @@
       <c r="E46" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="48">
-      <c r="A47" s="5" t="s">
+      <c r="F46" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="80">
+      <c r="A47" s="9" t="s">
         <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="32">
-      <c r="A48" s="5"/>
+    <row r="48" spans="1:7" ht="48">
+      <c r="A48" s="9"/>
       <c r="B48" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="5"/>
+      <c r="C48" s="9"/>
       <c r="E48" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="16">
-      <c r="A49" s="5"/>
+      <c r="F48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="16">
+      <c r="A49" s="9"/>
       <c r="B49" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="5"/>
+      <c r="C49" s="9"/>
       <c r="E49" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="32">
-      <c r="A50" s="5"/>
+        <v>143</v>
+      </c>
+      <c r="F49" t="s">
+        <v>150</v>
+      </c>
+      <c r="G49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="48">
+      <c r="A50" s="9"/>
       <c r="B50" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="5"/>
+      <c r="C50" s="9"/>
+      <c r="D50" t="s">
+        <v>167</v>
+      </c>
       <c r="E50" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="16">
-      <c r="A51" s="5"/>
+        <v>146</v>
+      </c>
+      <c r="F50" t="s">
+        <v>150</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="16">
+      <c r="A51" s="9"/>
       <c r="B51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="5"/>
+      <c r="C51" s="9"/>
+      <c r="D51" t="s">
+        <v>168</v>
+      </c>
       <c r="E51" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="128">
-      <c r="A52" s="5"/>
+        <v>143</v>
+      </c>
+      <c r="F51" t="s">
+        <v>150</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="208">
+      <c r="A52" s="9"/>
       <c r="B52" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="5"/>
+      <c r="C52" s="9"/>
+      <c r="D52" t="s">
+        <v>169</v>
+      </c>
       <c r="E52" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="32">
-      <c r="A53" s="5"/>
+      <c r="F52" t="s">
+        <v>150</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="64">
+      <c r="A53" s="9"/>
       <c r="B53" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="5"/>
+      <c r="C53" s="9"/>
       <c r="E53" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="16">
-      <c r="A54" s="5"/>
+      <c r="F53" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="16">
+      <c r="A54" s="9"/>
       <c r="B54" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="5"/>
+      <c r="C54" s="9"/>
       <c r="E54" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="32">
-      <c r="A55" s="5"/>
-      <c r="B55" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="64">
+      <c r="A55" s="9"/>
+      <c r="B55" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C55" s="5"/>
+      <c r="C55" s="9"/>
+      <c r="D55" t="s">
+        <v>170</v>
+      </c>
       <c r="E55" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="16">
-      <c r="A56" s="5"/>
+      <c r="F55" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="32">
+      <c r="A56" s="9"/>
       <c r="B56" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="5"/>
+      <c r="C56" s="9"/>
       <c r="E56" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="32">
-      <c r="A57" s="5"/>
+        <v>145</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="32">
+      <c r="A57" s="9"/>
       <c r="B57" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="5"/>
-    </row>
-    <row r="58" spans="1:5" ht="32">
+      <c r="C57" s="9"/>
+      <c r="F57" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="48">
       <c r="A58" s="2" t="s">
         <v>102</v>
       </c>
@@ -1743,8 +2432,11 @@
       <c r="E58" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="16">
+      <c r="F58" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30">
       <c r="A59" s="2" t="s">
         <v>104</v>
       </c>
@@ -1757,11 +2449,18 @@
       <c r="E59" s="4" t="s">
         <v>125</v>
       </c>
+      <c r="F59" s="7" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="A47:A57"/>
     <mergeCell ref="C47:C57"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="G39:G40"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1771,4 +2470,314 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="60">
+      <c r="B1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="32">
+      <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="32">
+      <c r="A3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="32">
+      <c r="A4" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="32">
+      <c r="A5" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="48">
+      <c r="A6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="32">
+      <c r="A7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="32">
+      <c r="A8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16">
+      <c r="A9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="32">
+      <c r="A10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="64">
+      <c r="A11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="32">
+      <c r="A12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="48">
+      <c r="A13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="144">
+      <c r="A14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="32">
+      <c r="A15" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="32">
+      <c r="A16" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="32">
+      <c r="A17" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="32">
+      <c r="A18" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="32">
+      <c r="A19" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="32">
+      <c r="A20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="65">
+      <c r="A21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="65">
+      <c r="A22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="32">
+      <c r="A23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16">
+      <c r="A24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16">
+      <c r="A25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="48">
+      <c r="A26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="32">
+      <c r="A27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="224">
+      <c r="A28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16">
+      <c r="A29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="64">
+      <c r="A30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="64">
+      <c r="A31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16">
+      <c r="A32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>